--- a/9.10/left.xlsx
+++ b/9.10/left.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Before</t>
   </si>
@@ -237,6 +237,39 @@
   </si>
   <si>
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/7.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 7: PPDAC Cycle 2 - Height and Arm Span</t>
+  </si>
+  <si>
+    <t>Lesson 7.3: Video - PPDAC Cycle 2 - Height and Arm Span</t>
+  </si>
+  <si>
+    <t>Lesson 7.5: Typed Notes</t>
+  </si>
+  <si>
+    <t>Lesson 7.6: Extra Bivariate Investigation Ideas</t>
+  </si>
+  <si>
+    <t>Lesson 7.2: Your Turn - Using NZGrapher</t>
+  </si>
+  <si>
+    <t>Lesson 7.4: Your Turn - PPDAC 2</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/9.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/10.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/erB-H8kJjI4</t>
+  </si>
+  <si>
+    <t>Lesson 7.1: Video - NZGrapher for Bivariate Data</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/fW9WehJB0ro</t>
   </si>
 </sst>
 </file>
@@ -287,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,6 +333,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="str">
-        <f>SUBSTITUTE(F7,".","_")</f>
+        <f t="shared" ref="G7:G13" si="6">SUBSTITUTE(F7,".","_")</f>
         <v>2</v>
       </c>
       <c r="H7" t="str">
@@ -858,7 +894,7 @@
         <v>2.1</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>SUBSTITUTE(F8,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_1</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -893,7 +929,7 @@
         <v>2.2</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f>SUBSTITUTE(F9,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_2</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -933,7 +969,7 @@
         <v>2.3</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>SUBSTITUTE(F10,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_3</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -969,7 +1005,7 @@
         <v>2.4</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>SUBSTITUTE(F11,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_4</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -1004,7 +1040,7 @@
         <v>2.5</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>SUBSTITUTE(F12,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_5</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -1039,7 +1075,7 @@
         <v>2.6</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>SUBSTITUTE(F13,".","_")</f>
+        <f t="shared" si="6"/>
         <v>2_6</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -1078,7 +1114,7 @@
         <v>2.7</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G18" si="6">SUBSTITUTE(F14,".","_")</f>
+        <f t="shared" ref="G14:G18" si="7">SUBSTITUTE(F14,".","_")</f>
         <v>2_7</v>
       </c>
       <c r="H14" t="str">
@@ -1094,22 +1130,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" ref="A15" si="7">IF(I15&lt;&gt;"Lesson","&lt;a href='"&amp;H15&amp;".html' class="&amp;I15&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A15" si="8">IF(I15&lt;&gt;"Lesson","&lt;a href='"&amp;H15&amp;".html' class="&amp;I15&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15" si="8">IF(I15&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C15" si="9">IF(I15&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15" si="9">LEFT(B15,FIND(":",B15)-1)</f>
+        <f t="shared" ref="E15" si="10">LEFT(B15,FIND(":",B15)-1)</f>
         <v>Lesson 3</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15" si="10">RIGHT(E15,LEN(E15)-FIND(" ",E15))</f>
+        <f t="shared" ref="F15" si="11">RIGHT(E15,LEN(E15)-FIND(" ",E15))</f>
         <v>3</v>
       </c>
       <c r="G15" t="str">
@@ -1126,18 +1162,18 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" ref="A16" si="11">IF(I16&lt;&gt;"Lesson","&lt;a href='"&amp;H16&amp;".html' class="&amp;I16&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A16" si="12">IF(I16&lt;&gt;"Lesson","&lt;a href='"&amp;H16&amp;".html' class="&amp;I16&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16" si="12">IF(I16&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C16" si="13">IF(I16&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16" si="13">LEFT(B16,FIND(":",B16)-1)</f>
+        <f t="shared" ref="E16" si="14">LEFT(B16,FIND(":",B16)-1)</f>
         <v>Lesson 3.1</v>
       </c>
       <c r="F16" t="str">
@@ -1145,7 +1181,7 @@
         <v>3.1</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ref="G16" si="14">SUBSTITUTE(F16,".","_")</f>
+        <f t="shared" ref="G16" si="15">SUBSTITUTE(F16,".","_")</f>
         <v>3_1</v>
       </c>
       <c r="H16" t="str">
@@ -1180,7 +1216,7 @@
         <v>3.2</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_2</v>
       </c>
       <c r="H17" t="str">
@@ -1211,11 +1247,11 @@
         <v>Lesson 3.3</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" ref="F18:F20" si="15">RIGHT(E18,LEN(E18)-FIND(" ",E18))</f>
+        <f t="shared" ref="F18:F20" si="16">RIGHT(E18,LEN(E18)-FIND(" ",E18))</f>
         <v>3.3</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3_3</v>
       </c>
       <c r="H18" s="3" t="str">
@@ -1270,26 +1306,26 @@
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
-        <f t="shared" ref="A20" si="16">IF(I20&lt;&gt;"Lesson","&lt;a href='"&amp;H20&amp;".html' class="&amp;I20&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A20" si="17">IF(I20&lt;&gt;"Lesson","&lt;a href='"&amp;H20&amp;".html' class="&amp;I20&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_3_5.html' class=Document&gt;</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" ref="C20" si="17">IF(I20&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C20" si="18">IF(I20&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="shared" ref="E20" si="18">LEFT(B20,FIND(":",B20)-1)</f>
+        <f t="shared" ref="E20" si="19">LEFT(B20,FIND(":",B20)-1)</f>
         <v>Lesson 3.5</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" ref="G20" si="19">SUBSTITUTE(F20,".","_")</f>
+        <f t="shared" ref="G20" si="20">SUBSTITUTE(F20,".","_")</f>
         <v>3_5</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -1312,19 +1348,19 @@
         <v>43</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" ref="C21:C24" si="20">IF(I21&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C21:C24" si="21">IF(I21&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" ref="E21:E24" si="21">LEFT(B21,FIND(":",B21)-1)</f>
+        <f t="shared" ref="E21:E24" si="22">LEFT(B21,FIND(":",B21)-1)</f>
         <v>Lesson 3.6</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" ref="F21:F24" si="22">RIGHT(E21,LEN(E21)-FIND(" ",E21))</f>
+        <f t="shared" ref="F21:F24" si="23">RIGHT(E21,LEN(E21)-FIND(" ",E21))</f>
         <v>3.6</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21" si="23">SUBSTITUTE(F21,".","_")</f>
+        <f t="shared" ref="G21" si="24">SUBSTITUTE(F21,".","_")</f>
         <v>3_6</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -1347,15 +1383,15 @@
         <v>46</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Lesson 4</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="G22" t="str">
@@ -1379,19 +1415,19 @@
         <v>47</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Lesson 4.1</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.1</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" ref="G23:G24" si="24">SUBSTITUTE(F23,".","_")</f>
+        <f t="shared" ref="G23:G24" si="25">SUBSTITUTE(F23,".","_")</f>
         <v>4_1</v>
       </c>
       <c r="H23" s="3" t="str">
@@ -1414,19 +1450,19 @@
         <v>50</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Lesson 4.2</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.2</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4_2</v>
       </c>
       <c r="H24" s="3" t="str">
@@ -1481,22 +1517,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" ref="A26" si="25">IF(I26&lt;&gt;"Lesson","&lt;a href='"&amp;H26&amp;".html' class="&amp;I26&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A26" si="26">IF(I26&lt;&gt;"Lesson","&lt;a href='"&amp;H26&amp;".html' class="&amp;I26&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ref="C26" si="26">IF(I26&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C26" si="27">IF(I26&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ref="E26" si="27">LEFT(B26,FIND(":",B26)-1)</f>
+        <f t="shared" ref="E26" si="28">LEFT(B26,FIND(":",B26)-1)</f>
         <v>Lesson 5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ref="F26" si="28">RIGHT(E26,LEN(E26)-FIND(" ",E26))</f>
+        <f t="shared" ref="F26" si="29">RIGHT(E26,LEN(E26)-FIND(" ",E26))</f>
         <v>5</v>
       </c>
       <c r="G26" t="str">
@@ -1514,26 +1550,26 @@
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
-        <f t="shared" ref="A27" si="29">IF(I27&lt;&gt;"Lesson","&lt;a href='"&amp;H27&amp;".html' class="&amp;I27&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A27" si="30">IF(I27&lt;&gt;"Lesson","&lt;a href='"&amp;H27&amp;".html' class="&amp;I27&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" ref="C27" si="30">IF(I27&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C27" si="31">IF(I27&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" ref="E27" si="31">LEFT(B27,FIND(":",B27)-1)</f>
+        <f t="shared" ref="E27" si="32">LEFT(B27,FIND(":",B27)-1)</f>
         <v>Lesson 5.1</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" ref="F27" si="32">RIGHT(E27,LEN(E27)-FIND(" ",E27))</f>
+        <f t="shared" ref="F27" si="33">RIGHT(E27,LEN(E27)-FIND(" ",E27))</f>
         <v>5.1</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" ref="G27" si="33">SUBSTITUTE(F27,".","_")</f>
+        <f t="shared" ref="G27" si="34">SUBSTITUTE(F27,".","_")</f>
         <v>5_1</v>
       </c>
       <c r="H27" s="3" t="str">
@@ -1600,26 +1636,26 @@
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
-        <f t="shared" ref="A29:A32" si="34">IF(I29&lt;&gt;"Lesson","&lt;a href='"&amp;H29&amp;".html' class="&amp;I29&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A29:A32" si="35">IF(I29&lt;&gt;"Lesson","&lt;a href='"&amp;H29&amp;".html' class="&amp;I29&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_5_3.html' class=Document&gt;</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" ref="C29:C32" si="35">IF(I29&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C29:C32" si="36">IF(I29&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" ref="E29:E32" si="36">LEFT(B29,FIND(":",B29)-1)</f>
+        <f t="shared" ref="E29:E32" si="37">LEFT(B29,FIND(":",B29)-1)</f>
         <v>Lesson 5.3</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" ref="F29:F32" si="37">RIGHT(E29,LEN(E29)-FIND(" ",E29))</f>
+        <f t="shared" ref="F29:F32" si="38">RIGHT(E29,LEN(E29)-FIND(" ",E29))</f>
         <v>5.3</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" ref="G29" si="38">SUBSTITUTE(F29,".","_")</f>
+        <f t="shared" ref="G29" si="39">SUBSTITUTE(F29,".","_")</f>
         <v>5_3</v>
       </c>
       <c r="H29" s="3" t="str">
@@ -1635,22 +1671,22 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>Lesson 6</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="G30" t="str">
@@ -1665,63 +1701,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="str">
-        <f t="shared" si="34"/>
+    <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="35"/>
         <v>&lt;a href='9.10_6_1.html' class=Video&gt;</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E31" s="4" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="36"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="37"/>
         <v>Lesson 6.1</v>
       </c>
-      <c r="F31" s="4" t="str">
-        <f t="shared" si="37"/>
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>6.1</v>
       </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" ref="G31:G32" si="39">SUBSTITUTE(F31,".","_")</f>
+      <c r="G31" s="3" t="str">
+        <f t="shared" ref="G31:G32" si="40">SUBSTITUTE(F31,".","_")</f>
         <v>6_1</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>9.10_6_1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>23</v>
+      <c r="J31" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>&lt;a href='9.10_6_2.html' class=Document&gt;</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>Lesson 6.2</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>6.2</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6_2</v>
       </c>
       <c r="H32" s="3" t="str">
@@ -1735,63 +1771,282 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D33" s="3"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D34" s="3"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="3"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A37" si="41">IF(I33&lt;&gt;"Lesson","&lt;a href='"&amp;H33&amp;".html' class="&amp;I33&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C37" si="42">IF(I33&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:E37" si="43">LEFT(B33,FIND(":",B33)-1)</f>
+        <v>Lesson 7</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" ref="F33:F37" si="44">RIGHT(E33,LEN(E33)-FIND(" ",E33))</f>
+        <v>7</v>
+      </c>
+      <c r="G33" t="str">
+        <f>SUBSTITUTE(F33,".","_")</f>
+        <v>7</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ref="H33:H37" si="45">"9.10_"&amp;G33</f>
+        <v>9.10_7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;a href='9.10_7_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>Lesson 7.1</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>7.1</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f t="shared" ref="G34:G37" si="46">SUBSTITUTE(F34,".","_")</f>
+        <v>7_1</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>9.10_7_1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="str">
+        <f t="shared" ref="A35:A36" si="47">IF(I35&lt;&gt;"Lesson","&lt;a href='"&amp;H35&amp;".html' class="&amp;I35&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.10_7_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:C36" si="48">IF(I35&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" ref="E35:E36" si="49">LEFT(B35,FIND(":",B35)-1)</f>
+        <v>Lesson 7.2</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" ref="F35:F36" si="50">RIGHT(E35,LEN(E35)-FIND(" ",E35))</f>
+        <v>7.2</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" ref="G35:G36" si="51">SUBSTITUTE(F35,".","_")</f>
+        <v>7_2</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" ref="H35:H36" si="52">"9.10_"&amp;G35</f>
+        <v>9.10_7_2</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>&lt;a href='9.10_7_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>Lesson 7.3</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>7.3</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>7_3</v>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>9.10_7_3</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;a href='9.10_7_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="42"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="43"/>
+        <v>Lesson 7.4</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>7.4</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f t="shared" si="46"/>
+        <v>7_4</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f t="shared" si="45"/>
+        <v>9.10_7_4</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="str">
+        <f t="shared" ref="A38" si="53">IF(I38&lt;&gt;"Lesson","&lt;a href='"&amp;H38&amp;".html' class="&amp;I38&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.10_7_5.html' class=Questions&gt;</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" ref="C38" si="54">IF(I38&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="str">
+        <f t="shared" ref="E38" si="55">LEFT(B38,FIND(":",B38)-1)</f>
+        <v>Lesson 7.5</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" ref="F38" si="56">RIGHT(E38,LEN(E38)-FIND(" ",E38))</f>
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" ref="G38" si="57">SUBSTITUTE(F38,".","_")</f>
+        <v>7_5</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f t="shared" ref="H38" si="58">"9.10_"&amp;G38</f>
+        <v>9.10_7_5</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="str">
+        <f t="shared" ref="A39" si="59">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.10_7_6.html' class=Document&gt;</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" ref="C39" si="60">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
       <c r="D39" s="3"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="str">
+        <f t="shared" ref="E39" si="61">LEFT(B39,FIND(":",B39)-1)</f>
+        <v>Lesson 7.6</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" ref="F39" si="62">RIGHT(E39,LEN(E39)-FIND(" ",E39))</f>
+        <v>7.6</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" ref="G39" si="63">SUBSTITUTE(F39,".","_")</f>
+        <v>7_6</v>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f t="shared" ref="H39" si="64">"9.10_"&amp;G39</f>
+        <v>9.10_7_6</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
       <c r="D40" s="3"/>
-      <c r="E40" t="s">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="3"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" s="2"/>
@@ -1802,14 +2057,20 @@
     <row r="51" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J51" s="2"/>
     </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="2"/>
+    </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="2"/>
-    </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1831,8 +2092,13 @@
     <hyperlink ref="J29" r:id="rId16"/>
     <hyperlink ref="J31" r:id="rId17"/>
     <hyperlink ref="J32" r:id="rId18"/>
+    <hyperlink ref="J34" r:id="rId19"/>
+    <hyperlink ref="J37" r:id="rId20"/>
+    <hyperlink ref="J38" r:id="rId21"/>
+    <hyperlink ref="J39" r:id="rId22"/>
+    <hyperlink ref="J36" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
--- a/9.10/left.xlsx
+++ b/9.10/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="456" windowWidth="27780" windowHeight="17544"/>
+    <workbookView xWindow="1020" yWindow="456" windowWidth="14340" windowHeight="7044"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Before</t>
   </si>
@@ -101,9 +101,6 @@
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/2.pdf&amp;embedded=true</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/kFD04Dbt09E</t>
   </si>
   <si>
@@ -200,12 +197,6 @@
     <t>Lesson 5: Identifying Investigation Type</t>
   </si>
   <si>
-    <t>Lesson 5.1: Video on Invesitation Types</t>
-  </si>
-  <si>
-    <t>Lesson 5.2: Indentify the Investigation Type</t>
-  </si>
-  <si>
     <t>Lesson 5.3: Extra Notes on Investigation Types</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/7.pdf&amp;embedded=true</t>
   </si>
   <si>
-    <t>Lesson 7: PPDAC Cycle 2 - Height and Arm Span</t>
-  </si>
-  <si>
     <t>Lesson 7.3: Video - PPDAC Cycle 2 - Height and Arm Span</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>Lesson 7.2: Your Turn - Using NZGrapher</t>
   </si>
   <si>
-    <t>Lesson 7.4: Your Turn - PPDAC 2</t>
-  </si>
-  <si>
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/9.pdf&amp;embedded=true</t>
   </si>
   <si>
@@ -270,6 +255,81 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/fW9WehJB0ro</t>
+  </si>
+  <si>
+    <t>Lesson 7: Bivariate Investigations</t>
+  </si>
+  <si>
+    <t>Lesson 5.1: Video on Investigation Types</t>
+  </si>
+  <si>
+    <t>Lesson 5.2: Identify the Investigation Type</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/11.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 9: Comparison Investigations</t>
+  </si>
+  <si>
+    <t>Lesson 9.3: Video - NZGrapher for Multivariate Data</t>
+  </si>
+  <si>
+    <t>Lesson 9.4: Your Turn - Using NZGrapher</t>
+  </si>
+  <si>
+    <t>Lesson 9.5: Video - PPDAC Cycle 3 - Boys and Girls Heights</t>
+  </si>
+  <si>
+    <t>Lesson 9.7: Typed Notes</t>
+  </si>
+  <si>
+    <t>Lesson 8.1: Video - Mean, Median and Mode</t>
+  </si>
+  <si>
+    <t>Lesson 8.2: Your Turn - Mean and Median</t>
+  </si>
+  <si>
+    <t>statistics1meanmed3,statistics1meanmed4,statistics1meanmed5,statistics1meanmed5,statistics1meanmed6</t>
+  </si>
+  <si>
+    <t>Lesson 8.3: Typed Notes</t>
+  </si>
+  <si>
+    <t>Lesson 8: Averages</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/12.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 9.1: Video - Box and Whisker Graphs and Making a Call</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/G-liCGX_0to</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/T6pZSXhf_y0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Lpq15ZhbNxA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/10yV8UmWhiI</t>
+  </si>
+  <si>
+    <t>Lesson 7.4: Your Turn - PPDAC 2 (not yet finished)</t>
+  </si>
+  <si>
+    <t>Lesson 9.2: Your Turn - Making a Call (not yet finished)</t>
+  </si>
+  <si>
+    <t>Lesson 9.6: Your Turn - PPDAC 3 (not yet finished)</t>
+  </si>
+  <si>
+    <t>Lesson 9.8: Extra Comparison Investigation Ideas (not yet finished)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/TF1e4FdLfKg</t>
   </si>
 </sst>
 </file>
@@ -293,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +363,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,7 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -336,6 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,16 +690,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
@@ -877,8 +950,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_1.html' class=Video&gt;</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="3"/>
@@ -904,8 +977,8 @@
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>26</v>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -913,8 +986,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="3"/>
@@ -939,12 +1012,12 @@
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="6" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac3ppd,,,,,</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -952,8 +1025,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_3.html' class=Video&gt;</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="3"/>
@@ -979,8 +1052,8 @@
       <c r="I10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
+      <c r="J10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,8 +1061,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_4.html' class=Questions&gt;</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1015,8 +1088,8 @@
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>33</v>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1024,8 +1097,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_5.html' class=Video&gt;</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1050,8 +1123,8 @@
       <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
+      <c r="J12" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1059,8 +1132,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_6.html' class=Questions&gt;</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1085,12 +1158,12 @@
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="J13" s="6" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;","&amp;N13&amp;","&amp;O13&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac4ac,,,,,</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1099,7 +1172,7 @@
         <v>&lt;a href='9.10_2_7.html' class=Document&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
@@ -1134,7 +1207,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="9">IF(I15&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1166,7 +1239,7 @@
         <v>&lt;a href='9.10_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16" si="13">IF(I16&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1192,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1201,7 +1274,7 @@
         <v>&lt;a href='9.10_3_2.html' class=Document&gt;</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
@@ -1227,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1309,7 @@
         <v>&lt;a href='9.10_3_3.html' class=Video&gt;</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1261,8 +1334,8 @@
       <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>48</v>
+      <c r="J18" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1270,8 +1343,8 @@
         <f>IF(I19&lt;&gt;"Lesson","&lt;a href='"&amp;H19&amp;".html' class="&amp;I19&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_3_4.html' class=Questions&gt;</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>IF(I19&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1296,12 +1369,12 @@
       <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="6" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac5improve,,,,,</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1310,7 +1383,7 @@
         <v>&lt;a href='9.10_3_5.html' class=Document&gt;</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" ref="C20" si="18">IF(I20&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1335,8 +1408,8 @@
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
+      <c r="J20" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1344,8 +1417,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_3_6.html' class=Document&gt;</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>43</v>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ref="C21:C24" si="21">IF(I21&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1370,8 +1443,8 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>45</v>
+      <c r="J21" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1380,7 +1453,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="21"/>
@@ -1412,7 +1485,7 @@
         <v>&lt;a href='9.10_4_1.html' class=Video&gt;</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="21"/>
@@ -1437,8 +1510,8 @@
       <c r="I23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>61</v>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1520,7 @@
         <v>&lt;a href='9.10_4_2.html' class=Document&gt;</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="21"/>
@@ -1472,8 +1545,8 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>67</v>
+      <c r="J24" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1481,8 +1554,8 @@
         <f>IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_4_3.html' class=Questions&gt;</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>IF(I25&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1507,12 +1580,12 @@
       <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="J25" s="6" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac6terminology,,,,,</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1521,7 +1594,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ref="C26" si="27">IF(I26&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1546,7 +1619,7 @@
       <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
@@ -1554,7 +1627,7 @@
         <v>&lt;a href='9.10_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" ref="C27" si="31">IF(I27&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1579,8 +1652,8 @@
       <c r="I27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>66</v>
+      <c r="J27" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1588,8 +1661,8 @@
         <f>IF(I28&lt;&gt;"Lesson","&lt;a href='"&amp;H28&amp;".html' class="&amp;I28&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_5_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>57</v>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>IF(I28&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1614,24 +1687,24 @@
       <c r="I28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="J28" s="6" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;","&amp;N28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1713,7 @@
         <v>&lt;a href='9.10_5_3.html' class=Document&gt;</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" ref="C29:C32" si="36">IF(I29&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1665,8 +1738,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>68</v>
+      <c r="J29" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1675,7 +1748,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="36"/>
@@ -1707,7 +1780,7 @@
         <v>&lt;a href='9.10_6_1.html' class=Video&gt;</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="36"/>
@@ -1732,8 +1805,8 @@
       <c r="I31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>77</v>
+      <c r="J31" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1741,8 +1814,8 @@
         <f t="shared" si="35"/>
         <v>&lt;a href='9.10_6_2.html' class=Document&gt;</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>64</v>
+      <c r="B32" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="36"/>
@@ -1767,17 +1840,17 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" ref="A33:A37" si="41">IF(I33&lt;&gt;"Lesson","&lt;a href='"&amp;H33&amp;".html' class="&amp;I33&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C37" si="42">IF(I33&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1803,49 +1876,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="str">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="str">
         <f t="shared" si="41"/>
         <v>&lt;a href='9.10_7_1.html' class=Video&gt;</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="4" t="str">
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="str">
         <f t="shared" si="42"/>
         <v>&lt;/a&gt;</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="str">
+      <c r="E34" s="3" t="str">
         <f t="shared" si="43"/>
         <v>Lesson 7.1</v>
       </c>
-      <c r="F34" s="4" t="str">
+      <c r="F34" s="3" t="str">
         <f t="shared" si="44"/>
         <v>7.1</v>
       </c>
-      <c r="G34" s="4" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" ref="G34:G37" si="46">SUBSTITUTE(F34,".","_")</f>
         <v>7_1</v>
       </c>
-      <c r="H34" s="4" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" si="45"/>
         <v>9.10_7_1</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" ref="A35:A36" si="47">IF(I35&lt;&gt;"Lesson","&lt;a href='"&amp;H35&amp;".html' class="&amp;I35&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_7_2.html' class=Questions&gt;</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" ref="C35:C36" si="48">IF(I35&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1871,16 +1943,16 @@
         <v>10</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="47"/>
         <v>&lt;a href='9.10_7_3.html' class=Video&gt;</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="48"/>
@@ -1905,52 +1977,53 @@
       <c r="I36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_4.html' class=Document&gt;</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>&lt;a href='9.10_7_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" si="42"/>
         <v>&lt;/a&gt;</v>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" si="43"/>
         <v>Lesson 7.4</v>
       </c>
-      <c r="F37" s="4" t="str">
+      <c r="F37" s="3" t="str">
         <f t="shared" si="44"/>
         <v>7.4</v>
       </c>
-      <c r="G37" s="4" t="str">
+      <c r="G37" s="3" t="str">
         <f t="shared" si="46"/>
         <v>7_4</v>
       </c>
-      <c r="H37" s="4" t="str">
+      <c r="H37" s="3" t="str">
         <f t="shared" si="45"/>
         <v>9.10_7_4</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="6" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;","&amp;N37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,,,,,,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f t="shared" ref="A38" si="53">IF(I38&lt;&gt;"Lesson","&lt;a href='"&amp;H38&amp;".html' class="&amp;I38&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='9.10_7_5.html' class=Questions&gt;</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>&lt;a href='9.10_7_5.html' class=Document&gt;</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" ref="C38" si="54">IF(I38&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1974,22 +2047,22 @@
         <v>9.10_7_5</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39" si="59">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A39:A51" si="59">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_7_6.html' class=Document&gt;</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>72</v>
+      <c r="B39" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" ref="C39" si="60">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C39:C51" si="60">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="D39" s="3"/>
@@ -2012,65 +2085,492 @@
       <c r="I39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+      <c r="J39" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/span&gt;</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D41" s="3"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E40" s="3" t="str">
+        <f t="shared" ref="E40:E44" si="65">LEFT(B40,FIND(":",B40)-1)</f>
+        <v>Lesson 8</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" ref="F40:F44" si="66">RIGHT(E40,LEN(E40)-FIND(" ",E40))</f>
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" ref="G40:G44" si="67">SUBSTITUTE(F40,".","_")</f>
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f t="shared" ref="H40:H44" si="68">"9.10_"&amp;G40</f>
+        <v>9.10_8</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_8_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>Lesson 8.1</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>8.1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>8_1</v>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>9.10_8_1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_8_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>Lesson 8.2</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>8.2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>8_2</v>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>9.10_8_2</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#statistics1meanmed3,statistics1meanmed4,statistics1meanmed5,statistics1meanmed5,statistics1meanmed6,,,,,,,,,,</v>
+      </c>
+      <c r="K42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_8_3.html' class=Document&gt;</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>Lesson 8.3</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>8.3</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>8_3</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>9.10_8_3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="65"/>
+        <v>Lesson 9</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="68"/>
+        <v>9.10_9</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
-        <v>60</v>
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" ref="E44:E52" si="69">LEFT(B45,FIND(":",B45)-1)</f>
+        <v>Lesson 9.1</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" ref="F44:F52" si="70">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
+        <v>9.1</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" ref="G44:G52" si="71">SUBSTITUTE(F45,".","_")</f>
+        <v>9_1</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" ref="H44:H52" si="72">"9.10_"&amp;G45</f>
+        <v>9.10_9_1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.2</v>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_2</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_2</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J47" s="2"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.3</v>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.3</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_3</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.4</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.4</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_4</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.5</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.5</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_5</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_6.html' class=Questions&gt;</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.6</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.6</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_6</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_6</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;a href='9.10_9_7.html' class=Document&gt;</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="60"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.7</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.7</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_7</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_7</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="str">
+        <f t="shared" ref="A52" si="73">IF(I52&lt;&gt;"Lesson","&lt;a href='"&amp;H52&amp;".html' class="&amp;I52&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.10_9_8.html' class=Document&gt;</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" ref="C52" si="74">IF(I52&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f t="shared" si="69"/>
+        <v>Lesson 9.8</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="70"/>
+        <v>9.8</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="71"/>
+        <v>9_8</v>
+      </c>
+      <c r="H52" s="3" t="str">
+        <f t="shared" si="72"/>
+        <v>9.10_9_8</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J53" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J63" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2093,12 +2593,17 @@
     <hyperlink ref="J31" r:id="rId17"/>
     <hyperlink ref="J32" r:id="rId18"/>
     <hyperlink ref="J34" r:id="rId19"/>
-    <hyperlink ref="J37" r:id="rId20"/>
-    <hyperlink ref="J38" r:id="rId21"/>
-    <hyperlink ref="J39" r:id="rId22"/>
-    <hyperlink ref="J36" r:id="rId23"/>
+    <hyperlink ref="J38" r:id="rId20"/>
+    <hyperlink ref="J39" r:id="rId21"/>
+    <hyperlink ref="J36" r:id="rId22"/>
+    <hyperlink ref="J51" r:id="rId23"/>
+    <hyperlink ref="J43" r:id="rId24"/>
+    <hyperlink ref="J41" r:id="rId25"/>
+    <hyperlink ref="J45" r:id="rId26"/>
+    <hyperlink ref="J47" r:id="rId27"/>
+    <hyperlink ref="J49" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
--- a/9.10/left.xlsx
+++ b/9.10/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>Before</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Lesson 1.3: PPDAC in detail</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/1.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>ppdac</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>https://www.youtube.com/embed/SiGPIaAbrkc</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/2.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/kFD04Dbt09E</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/3.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/IcVeMAgyOkQ</t>
   </si>
   <si>
@@ -161,12 +152,6 @@
     <t>Lesson 3.6: Sentence Starts and Extra Questions</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/4.pdf&amp;embedded=true</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/5.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>Lesson 4: Terminology</t>
   </si>
   <si>
@@ -218,18 +203,9 @@
     <t>Lesson 6.2: Link to Census at School</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/8.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/YkIw_2pJy_A</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/6.pdf&amp;embedded=true</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/7.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>Lesson 7.3: Video - PPDAC Cycle 2 - Height and Arm Span</t>
   </si>
   <si>
@@ -242,12 +218,6 @@
     <t>Lesson 7.2: Your Turn - Using NZGrapher</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/9.pdf&amp;embedded=true</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/10.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/erB-H8kJjI4</t>
   </si>
   <si>
@@ -266,9 +236,6 @@
     <t>Lesson 5.2: Identify the Investigation Type</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/11.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>Lesson 9: Comparison Investigations</t>
   </si>
   <si>
@@ -299,9 +266,6 @@
     <t>Lesson 8: Averages</t>
   </si>
   <si>
-    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/12.pdf&amp;embedded=true</t>
-  </si>
-  <si>
     <t>Lesson 9.1: Video - Box and Whisker Graphs and Making a Call</t>
   </si>
   <si>
@@ -317,19 +281,142 @@
     <t>https://www.youtube.com/embed/10yV8UmWhiI</t>
   </si>
   <si>
-    <t>Lesson 7.4: Your Turn - PPDAC 2 (not yet finished)</t>
-  </si>
-  <si>
-    <t>Lesson 9.2: Your Turn - Making a Call (not yet finished)</t>
-  </si>
-  <si>
-    <t>Lesson 9.6: Your Turn - PPDAC 3 (not yet finished)</t>
-  </si>
-  <si>
-    <t>Lesson 9.8: Extra Comparison Investigation Ideas (not yet finished)</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/TF1e4FdLfKg</t>
+  </si>
+  <si>
+    <t>ppdac8improve</t>
+  </si>
+  <si>
+    <t>Lesson 7.4: Your Turn - PPDAC 2</t>
+  </si>
+  <si>
+    <t>https://students.mathsnz.com/qg/onscreen.html#ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,</t>
+  </si>
+  <si>
+    <t>Lesson 9.2: Your Turn - Making a Call</t>
+  </si>
+  <si>
+    <t>Lesson 10: Time Series Investigations</t>
+  </si>
+  <si>
+    <t>Lesson 10.1: Video - NZGrapher for Time Series Graphs</t>
+  </si>
+  <si>
+    <t>Lesson 10.2: Your Turn - Using NZGrapher</t>
+  </si>
+  <si>
+    <t>Lesson 10.5: Typed Notes</t>
+  </si>
+  <si>
+    <t>Lesson 10.6: Extra Time Series Investigation Ideas</t>
+  </si>
+  <si>
+    <t>Extra Notes:</t>
+  </si>
+  <si>
+    <t>Extra Notes 1: Teaching Plan</t>
+  </si>
+  <si>
+    <t>ppdac9nimprove</t>
+  </si>
+  <si>
+    <t>Lesson 9.6: Your Turn - PPDAC 3</t>
+  </si>
+  <si>
+    <t>Lesson 9.8: Extra Comparison Investigation Ideas</t>
+  </si>
+  <si>
+    <t>https://www.jake4maths.com/grapher/?folder=mathsnzstudents&amp;dataset=Attendance.csv</t>
+  </si>
+  <si>
+    <t>Lesson 11: Applying our Findings to Other Situations</t>
+  </si>
+  <si>
+    <t>Lesson 11.1: Video on Applying our Findings to Other Situations</t>
+  </si>
+  <si>
+    <t>Lesson 11.2: Typed Notes</t>
+  </si>
+  <si>
+    <t>Extra Notes 2: Junior Achievement Standard</t>
+  </si>
+  <si>
+    <t>Extra Notes 3: Formatting Data for Time Series on NZGrapher</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/1.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/2.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/3.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/4.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/5.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/6.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/7.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/8.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/9.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/10.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/11.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/12.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/13.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/14.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/15.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/16.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/17.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/standard.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.10/pdfs/18.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/VpZswsRw5Ck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/tS7B-2WbgVc</t>
+  </si>
+  <si>
+    <t>Lesson 10.3: Video - PPDAC Cycle 4 - School Attendance</t>
+  </si>
+  <si>
+    <t>ppdac9timprove</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/nZctlbOg-58</t>
+  </si>
+  <si>
+    <t>Lesson 10.4: Your Turn - PPDAC 4</t>
   </si>
 </sst>
 </file>
@@ -353,30 +440,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -392,23 +461,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +764,7 @@
     <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
     <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -836,7 +900,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac,,,,,</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -875,7 +939,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac2,,,,,</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -919,7 +983,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="3"/>
@@ -950,8 +1014,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_1.html' class=Video&gt;</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="3"/>
@@ -977,8 +1041,8 @@
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>25</v>
+      <c r="J8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -986,8 +1050,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1012,12 +1076,12 @@
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="str">
+      <c r="J9" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac3ppd,,,,,</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1025,8 +1089,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_3.html' class=Video&gt;</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1052,8 +1116,8 @@
       <c r="I10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>34</v>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1061,8 +1125,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_4.html' class=Questions&gt;</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1088,8 +1152,8 @@
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>32</v>
+      <c r="J11" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1097,8 +1161,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_5.html' class=Video&gt;</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1123,8 +1187,8 @@
       <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>35</v>
+      <c r="J12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1132,8 +1196,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_2_6.html' class=Questions&gt;</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1158,12 +1222,12 @@
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="J13" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;","&amp;N13&amp;","&amp;O13&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac4ac,,,,,</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1172,7 +1236,7 @@
         <v>&lt;a href='9.10_2_7.html' class=Document&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
@@ -1198,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1207,7 +1271,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15" si="9">IF(I15&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1239,7 +1303,7 @@
         <v>&lt;a href='9.10_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16" si="13">IF(I16&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1265,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1274,7 +1338,7 @@
         <v>&lt;a href='9.10_3_2.html' class=Document&gt;</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
@@ -1300,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1309,7 +1373,7 @@
         <v>&lt;a href='9.10_3_3.html' class=Video&gt;</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1334,8 +1398,8 @@
       <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>47</v>
+      <c r="J18" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1343,8 +1407,8 @@
         <f>IF(I19&lt;&gt;"Lesson","&lt;a href='"&amp;H19&amp;".html' class="&amp;I19&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_3_4.html' class=Questions&gt;</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>IF(I19&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1369,12 +1433,12 @@
       <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="J19" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac5improve,,,,,</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1447,7 @@
         <v>&lt;a href='9.10_3_5.html' class=Document&gt;</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" ref="C20" si="18">IF(I20&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1408,8 +1472,8 @@
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>43</v>
+      <c r="J20" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1417,8 +1481,8 @@
         <f t="shared" si="2"/>
         <v>&lt;a href='9.10_3_6.html' class=Document&gt;</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" ref="C21:C24" si="21">IF(I21&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1443,8 +1507,8 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>44</v>
+      <c r="J21" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1453,7 +1517,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="21"/>
@@ -1485,7 +1549,7 @@
         <v>&lt;a href='9.10_4_1.html' class=Video&gt;</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="21"/>
@@ -1510,8 +1574,8 @@
       <c r="I23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>58</v>
+      <c r="J23" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1520,7 +1584,7 @@
         <v>&lt;a href='9.10_4_2.html' class=Document&gt;</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="21"/>
@@ -1545,8 +1609,8 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>64</v>
+      <c r="J24" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1554,8 +1618,8 @@
         <f>IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_4_3.html' class=Questions&gt;</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>IF(I25&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1580,12 +1644,12 @@
       <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac6terminology,,,,,</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1594,7 +1658,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ref="C26" si="27">IF(I26&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1619,7 +1683,7 @@
       <c r="I26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
@@ -1627,7 +1691,7 @@
         <v>&lt;a href='9.10_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" ref="C27" si="31">IF(I27&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1652,8 +1716,8 @@
       <c r="I27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>63</v>
+      <c r="J27" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1661,8 +1725,8 @@
         <f>IF(I28&lt;&gt;"Lesson","&lt;a href='"&amp;H28&amp;".html' class="&amp;I28&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_5_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>77</v>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>IF(I28&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1687,24 +1751,24 @@
       <c r="I28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="6" t="str">
+      <c r="J28" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;","&amp;N28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1777,7 @@
         <v>&lt;a href='9.10_5_3.html' class=Document&gt;</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" ref="C29:C32" si="36">IF(I29&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1738,8 +1802,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>65</v>
+      <c r="J29" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1748,7 +1812,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="36"/>
@@ -1780,7 +1844,7 @@
         <v>&lt;a href='9.10_6_1.html' class=Video&gt;</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="36"/>
@@ -1805,8 +1869,8 @@
       <c r="I31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>72</v>
+      <c r="J31" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1814,8 +1878,8 @@
         <f t="shared" si="35"/>
         <v>&lt;a href='9.10_6_2.html' class=Document&gt;</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>61</v>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="36"/>
@@ -1840,8 +1904,8 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>62</v>
+      <c r="J32" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1850,7 +1914,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ref="C33:C37" si="42">IF(I33&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1882,7 +1946,7 @@
         <v>&lt;a href='9.10_7_1.html' class=Video&gt;</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="42"/>
@@ -1907,8 +1971,8 @@
       <c r="I34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>92</v>
+      <c r="J34" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1917,7 +1981,7 @@
         <v>&lt;a href='9.10_7_2.html' class=Questions&gt;</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" ref="C35:C36" si="48">IF(I35&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1943,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1952,7 +2016,7 @@
         <v>&lt;a href='9.10_7_3.html' class=Video&gt;</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="48"/>
@@ -1977,19 +2041,19 @@
       <c r="I36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>74</v>
+      <c r="J36" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="str">
+      <c r="A37" s="3" t="str">
         <f t="shared" si="41"/>
         <v>&lt;a href='9.10_7_4.html' class=Questions&gt;</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="4" t="str">
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3" t="str">
         <f t="shared" si="42"/>
         <v>&lt;/a&gt;</v>
       </c>
@@ -2009,12 +2073,15 @@
         <f t="shared" si="45"/>
         <v>9.10_7_4</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="6" t="str">
+      <c r="J37" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;","&amp;N37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,,,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac8improve,,,,,,,,,,</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2022,8 +2089,8 @@
         <f t="shared" ref="A38" si="53">IF(I38&lt;&gt;"Lesson","&lt;a href='"&amp;H38&amp;".html' class="&amp;I38&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_7_5.html' class=Document&gt;</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>67</v>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" ref="C38" si="54">IF(I38&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2049,8 +2116,8 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>70</v>
+      <c r="J38" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2058,8 +2125,8 @@
         <f t="shared" ref="A39:A51" si="59">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_7_6.html' class=Document&gt;</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>68</v>
+      <c r="B39" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" ref="C39:C51" si="60">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2085,8 +2152,8 @@
       <c r="I39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>71</v>
+      <c r="J39" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2094,8 +2161,8 @@
         <f t="shared" si="59"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>88</v>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2121,15 +2188,15 @@
       <c r="I40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_8_1.html' class=Video&gt;</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>84</v>
+      <c r="B41" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2154,8 +2221,8 @@
       <c r="I41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>91</v>
+      <c r="J41" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,8 +2230,8 @@
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_8_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>85</v>
+      <c r="B42" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2190,12 +2257,12 @@
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="6" t="str">
+      <c r="J42" s="5" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#statistics1meanmed3,statistics1meanmed4,statistics1meanmed5,statistics1meanmed5,statistics1meanmed6,,,,,,,,,,</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2203,8 +2270,8 @@
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_8_3.html' class=Document&gt;</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>87</v>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2230,8 +2297,8 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>78</v>
+      <c r="J43" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2239,8 +2306,8 @@
         <f t="shared" si="59"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>79</v>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2273,49 +2340,48 @@
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_9_1.html' class=Video&gt;</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>90</v>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="60"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E45" s="3" t="str">
-        <f t="shared" ref="E44:E52" si="69">LEFT(B45,FIND(":",B45)-1)</f>
+        <f t="shared" ref="E45:E52" si="69">LEFT(B45,FIND(":",B45)-1)</f>
         <v>Lesson 9.1</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" ref="F44:F52" si="70">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
+        <f t="shared" ref="F45:F52" si="70">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
         <v>9.1</v>
       </c>
       <c r="G45" s="3" t="str">
-        <f t="shared" ref="G44:G52" si="71">SUBSTITUTE(F45,".","_")</f>
+        <f t="shared" ref="G45:G52" si="71">SUBSTITUTE(F45,".","_")</f>
         <v>9_1</v>
       </c>
       <c r="H45" s="3" t="str">
-        <f t="shared" ref="H44:H52" si="72">"9.10_"&amp;G45</f>
+        <f t="shared" ref="H45:H52" si="72">"9.10_"&amp;G45</f>
         <v>9.10_9_1</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="str">
+      <c r="J45" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="str">
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_9_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="4" t="str">
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="str">
         <f t="shared" si="60"/>
         <v>&lt;/a&gt;</v>
       </c>
-      <c r="D46" s="3"/>
       <c r="E46" s="3" t="str">
         <f t="shared" si="69"/>
         <v>Lesson 9.2</v>
@@ -2332,10 +2398,12 @@
         <f t="shared" si="72"/>
         <v>9.10_9_2</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
@@ -2343,7 +2411,7 @@
         <v>&lt;a href='9.10_9_3.html' class=Video&gt;</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2368,8 +2436,8 @@
       <c r="I47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>93</v>
+      <c r="J47" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2378,7 +2446,7 @@
         <v>&lt;a href='9.10_9_4.html' class=Questions&gt;</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2404,17 +2472,17 @@
       <c r="I48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_9_5.html' class=Video&gt;</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C49" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2439,19 +2507,19 @@
       <c r="I49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="str">
+      <c r="J49" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="str">
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_9_6.html' class=Questions&gt;</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="4" t="str">
+      <c r="B50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="3" t="str">
         <f t="shared" si="60"/>
         <v>&lt;/a&gt;</v>
       </c>
@@ -2471,18 +2539,24 @@
         <f t="shared" si="72"/>
         <v>9.10_9_6</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J50" s="5" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K50&amp;","&amp;L50&amp;","&amp;M50&amp;","&amp;N50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac9nimprove,,,,,,,,,,</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="59"/>
         <v>&lt;a href='9.10_9_7.html' class=Document&gt;</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>83</v>
+      <c r="B51" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2508,20 +2582,20 @@
       <c r="I51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="str">
-        <f t="shared" ref="A52" si="73">IF(I52&lt;&gt;"Lesson","&lt;a href='"&amp;H52&amp;".html' class="&amp;I52&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+      <c r="J51" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="str">
+        <f t="shared" ref="A52:A66" si="73">IF(I52&lt;&gt;"Lesson","&lt;a href='"&amp;H52&amp;".html' class="&amp;I52&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.10_9_8.html' class=Document&gt;</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <f t="shared" ref="C52" si="74">IF(I52&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" ref="C52:C66" si="74">IF(I52&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E52" s="3" t="str">
@@ -2540,70 +2614,545 @@
         <f t="shared" si="72"/>
         <v>9.10_9_8</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="str">
+        <f t="shared" ref="E53:E63" si="75">LEFT(B53,FIND(":",B53)-1)</f>
+        <v>Lesson 10</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" ref="F53:F63" si="76">RIGHT(E53,LEN(E53)-FIND(" ",E53))</f>
+        <v>10</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" ref="G53:G63" si="77">SUBSTITUTE(F53,".","_")</f>
+        <v>10</v>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f t="shared" ref="H53:H63" si="78">"9.10_"&amp;G53</f>
+        <v>9.10_10</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J63" s="2"/>
+    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.1</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_1</v>
+      </c>
+      <c r="H54" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_1</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.2</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_2</v>
+      </c>
+      <c r="H55" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_2</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.3</v>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.3</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_3</v>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_3</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.4</v>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.4</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_4</v>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;","&amp;N57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac9timprove,,,,,,,,,,</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_5.html' class=Document&gt;</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.5</v>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.5</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_5</v>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_10_6.html' class=Document&gt;</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 10.6</v>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>10.6</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>10_6</v>
+      </c>
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_10_6</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 11</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>11</v>
+      </c>
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_11</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_11_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 11.1</v>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>11.1</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>11_1</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_11_1</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_11_2.html' class=Document&gt;</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Lesson 11.2</v>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>11.2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>11_2</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_11_2</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="75"/>
+        <v>Extra Notes</v>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="76"/>
+        <v>Notes</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="77"/>
+        <v>Notes</v>
+      </c>
+      <c r="H63" s="3" t="str">
+        <f t="shared" si="78"/>
+        <v>9.10_Notes</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_Notes 1.html' class=Document&gt;</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" ref="E64:E66" si="79">LEFT(B64,FIND(":",B64)-1)</f>
+        <v>Extra Notes 1</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" ref="F64:F66" si="80">RIGHT(E64,LEN(E64)-FIND(" ",E64))</f>
+        <v>Notes 1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" ref="G64:G66" si="81">SUBSTITUTE(F64,".","_")</f>
+        <v>Notes 1</v>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f t="shared" ref="H64:H66" si="82">"9.10_"&amp;G64</f>
+        <v>9.10_Notes 1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_Notes 2.html' class=Document&gt;</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>Extra Notes 2</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>Notes 2</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>Notes 2</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>9.10_Notes 2</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>&lt;a href='9.10_Notes 3.html' class=Document&gt;</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" si="74"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="79"/>
+        <v>Extra Notes 3</v>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="80"/>
+        <v>Notes 3</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="81"/>
+        <v>Notes 3</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="82"/>
+        <v>9.10_Notes 3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J6" r:id="rId2"/>
-    <hyperlink ref="J14" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId2" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/1.pdf&amp;embedded=true"/>
+    <hyperlink ref="J14" r:id="rId3" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/2.pdf&amp;embedded=true"/>
     <hyperlink ref="J8" r:id="rId4"/>
     <hyperlink ref="J16" r:id="rId5"/>
-    <hyperlink ref="J17" r:id="rId6"/>
+    <hyperlink ref="J17" r:id="rId6" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/3.pdf&amp;embedded=true"/>
     <hyperlink ref="J18" r:id="rId7"/>
-    <hyperlink ref="J20" r:id="rId8"/>
-    <hyperlink ref="J21" r:id="rId9"/>
+    <hyperlink ref="J20" r:id="rId8" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/4.pdf&amp;embedded=true"/>
+    <hyperlink ref="J21" r:id="rId9" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/5.pdf&amp;embedded=true"/>
     <hyperlink ref="J10" r:id="rId10"/>
     <hyperlink ref="J11" r:id="rId11"/>
     <hyperlink ref="J12" r:id="rId12"/>
     <hyperlink ref="J23" r:id="rId13"/>
-    <hyperlink ref="J24" r:id="rId14"/>
+    <hyperlink ref="J24" r:id="rId14" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/6.pdf&amp;embedded=true"/>
     <hyperlink ref="J27" r:id="rId15"/>
-    <hyperlink ref="J29" r:id="rId16"/>
+    <hyperlink ref="J29" r:id="rId16" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/7.pdf&amp;embedded=true"/>
     <hyperlink ref="J31" r:id="rId17"/>
-    <hyperlink ref="J32" r:id="rId18"/>
+    <hyperlink ref="J32" r:id="rId18" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/8.pdf&amp;embedded=true"/>
     <hyperlink ref="J34" r:id="rId19"/>
-    <hyperlink ref="J38" r:id="rId20"/>
-    <hyperlink ref="J39" r:id="rId21"/>
+    <hyperlink ref="J38" r:id="rId20" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/9.pdf&amp;embedded=true"/>
+    <hyperlink ref="J39" r:id="rId21" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/10.pdf&amp;embedded=true"/>
     <hyperlink ref="J36" r:id="rId22"/>
-    <hyperlink ref="J51" r:id="rId23"/>
-    <hyperlink ref="J43" r:id="rId24"/>
+    <hyperlink ref="J51" r:id="rId23" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/12.pdf&amp;embedded=true"/>
+    <hyperlink ref="J43" r:id="rId24" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/11.pdf&amp;embedded=true"/>
     <hyperlink ref="J41" r:id="rId25"/>
     <hyperlink ref="J45" r:id="rId26"/>
     <hyperlink ref="J47" r:id="rId27"/>
     <hyperlink ref="J49" r:id="rId28"/>
+    <hyperlink ref="J46" r:id="rId29" location="ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,"/>
+    <hyperlink ref="J52" r:id="rId30" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/13.pdf&amp;embedded=true"/>
+    <hyperlink ref="J48" r:id="rId31"/>
+    <hyperlink ref="J58" r:id="rId32" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/14.pdf&amp;embedded=true"/>
+    <hyperlink ref="J59" r:id="rId33" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/15.pdf&amp;embedded=true"/>
+    <hyperlink ref="J65" r:id="rId34" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/standard.pdf&amp;embedded=true"/>
+    <hyperlink ref="J62" r:id="rId35" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/16.pdf&amp;embedded=true"/>
+    <hyperlink ref="J64" r:id="rId36" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/17.pdf&amp;embedded=true"/>
+    <hyperlink ref="J66" r:id="rId37" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/18.pdf&amp;embedded=true"/>
+    <hyperlink ref="J54" r:id="rId38"/>
+    <hyperlink ref="J56" r:id="rId39"/>
+    <hyperlink ref="J61" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
--- a/9.10/left.xlsx
+++ b/9.10/left.xlsx
@@ -290,9 +290,6 @@
     <t>Lesson 7.4: Your Turn - PPDAC 2</t>
   </si>
   <si>
-    <t>https://students.mathsnz.com/qg/onscreen.html#ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,</t>
-  </si>
-  <si>
     <t>Lesson 9.2: Your Turn - Making a Call</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Lesson 10.4: Your Turn - PPDAC 4</t>
+  </si>
+  <si>
+    <t>ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="F39" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,6 +765,7 @@
     <col min="2" max="2" width="59.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
     <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,7 +886,7 @@
         <v>1.2</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G6" si="5">SUBSTITUTE(F4,".","_")</f>
+        <f>SUBSTITUTE(F4,".","_")</f>
         <v>1_2</v>
       </c>
       <c r="H4" t="str">
@@ -896,8 +897,8 @@
         <v>10</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;","&amp;N4&amp;","&amp;O4&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac,,,,,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F4,".","p")&amp;","&amp;K4&amp;","&amp;L4&amp;","&amp;M4&amp;","&amp;N4&amp;","&amp;O4&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson1p2,ppdac,,,,,</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -924,7 +925,7 @@
         <v>1.3</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G4:G6" si="5">SUBSTITUTE(F5,".","_")</f>
         <v>1_3</v>
       </c>
       <c r="H5" t="str">
@@ -935,8 +936,8 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac2,,,,,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F5,".","p")&amp;","&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson1p3,ppdac2,,,,,</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -974,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1076,9 +1077,9 @@
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac3ppd,,,,,</v>
+      <c r="J9" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F9,".","p")&amp;","&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p2,ppdac3ppd,,,,,</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>45</v>
@@ -1222,9 +1223,9 @@
       <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;","&amp;N13&amp;","&amp;O13&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac4ac,,,,,</v>
+      <c r="J13" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F13,".","p")&amp;","&amp;K13&amp;","&amp;L13&amp;","&amp;M13&amp;","&amp;N13&amp;","&amp;O13&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p6,ppdac4ac,,,,,</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>46</v>
@@ -1262,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1364,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1433,9 +1434,9 @@
       <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac5improve,,,,,</v>
+      <c r="J19" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F19,".","p")&amp;","&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson3p4,ppdac5improve,,,,,</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>47</v>
@@ -1473,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1508,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1610,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1644,9 +1645,9 @@
       <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac6terminology,,,,,</v>
+      <c r="J25" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F25,".","p")&amp;","&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson4p3,ppdac6terminology,,,,,</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>48</v>
@@ -1751,9 +1752,9 @@
       <c r="I28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;","&amp;N28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","&amp;O28&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,</v>
+      <c r="J28" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F28,".","p")&amp;","&amp;K28&amp;","&amp;L28&amp;","&amp;M28&amp;","&amp;N28&amp;","&amp;O28&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p2,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,ppdac7investigationtypes,</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>51</v>
@@ -1803,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1905,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2076,9 +2077,9 @@
       <c r="I37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;","&amp;N37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","&amp;O37&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac8improve,,,,,,,,,,</v>
+      <c r="J37" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F37,".","p")&amp;","&amp;K37&amp;","&amp;L37&amp;","&amp;M37&amp;","&amp;N37&amp;","&amp;O37&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p4,ppdac8improve,,,,,</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>84</v>
@@ -2117,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2153,7 +2154,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2257,9 +2258,9 @@
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","&amp;O42&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#statistics1meanmed3,statistics1meanmed4,statistics1meanmed5,statistics1meanmed5,statistics1meanmed6,,,,,,,,,,</v>
+      <c r="J42" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F42,".","p")&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson8p2,statistics1meanmed3,statistics1meanmed4,statistics1meanmed5,statistics1meanmed5,statistics1meanmed6,,,,,</v>
       </c>
       <c r="K42" t="s">
         <v>75</v>
@@ -2298,7 +2299,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2376,7 +2377,7 @@
         <v>&lt;a href='9.10_9_2.html' class=Questions&gt;</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2401,8 +2402,12 @@
       <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>86</v>
+      <c r="J46" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F46,".","p")&amp;","&amp;K46&amp;","&amp;L46&amp;","&amp;M46&amp;","&amp;N46&amp;","&amp;O46&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson9p2,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,,,,,,</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2517,7 +2522,7 @@
         <v>&lt;a href='9.10_9_6.html' class=Questions&gt;</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="60"/>
@@ -2542,12 +2547,12 @@
       <c r="I50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K50&amp;","&amp;L50&amp;","&amp;M50&amp;","&amp;N50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","&amp;O50&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac9nimprove,,,,,,,,,,</v>
+      <c r="J50" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F50,".","p")&amp;","&amp;K50&amp;","&amp;L50&amp;","&amp;M50&amp;","&amp;N50&amp;","&amp;O50&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson9p6,ppdac9nimprove,,,,,</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2583,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2592,7 +2597,7 @@
         <v>&lt;a href='9.10_9_8.html' class=Document&gt;</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" ref="C52:C66" si="74">IF(I52&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2618,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2627,7 +2632,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2661,7 +2666,7 @@
         <v>&lt;a href='9.10_10_1.html' class=Video&gt;</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2687,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2696,7 +2701,7 @@
         <v>&lt;a href='9.10_10_2.html' class=Questions&gt;</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2722,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2731,7 +2736,7 @@
         <v>&lt;a href='9.10_10_3.html' class=Video&gt;</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2757,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2766,7 +2771,7 @@
         <v>&lt;a href='9.10_10_4.html' class=Questions&gt;</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2796,7 +2801,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#ppdac9timprove,,,,,,,,,,</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2805,7 +2810,7 @@
         <v>&lt;a href='9.10_10_5.html' class=Document&gt;</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2831,7 +2836,7 @@
         <v>8</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2840,7 +2845,7 @@
         <v>&lt;a href='9.10_10_6.html' class=Document&gt;</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2866,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2875,7 +2880,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2908,7 +2913,7 @@
         <v>&lt;a href='9.10_11_1.html' class=Video&gt;</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2934,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2943,7 +2948,7 @@
         <v>&lt;a href='9.10_11_2.html' class=Document&gt;</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="74"/>
@@ -2969,7 +2974,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2978,7 +2983,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="3" t="str">
         <f t="shared" si="74"/>
@@ -3010,7 +3015,7 @@
         <v>&lt;a href='9.10_Notes 1.html' class=Document&gt;</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3" t="str">
         <f t="shared" si="74"/>
@@ -3036,7 +3041,7 @@
         <v>8</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3045,7 +3050,7 @@
         <v>&lt;a href='9.10_Notes 2.html' class=Document&gt;</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3" t="str">
         <f t="shared" si="74"/>
@@ -3071,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3080,7 +3085,7 @@
         <v>&lt;a href='9.10_Notes 3.html' class=Document&gt;</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" si="74"/>
@@ -3106,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3139,20 +3144,19 @@
     <hyperlink ref="J45" r:id="rId26"/>
     <hyperlink ref="J47" r:id="rId27"/>
     <hyperlink ref="J49" r:id="rId28"/>
-    <hyperlink ref="J46" r:id="rId29" location="ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,ppdac9makeacall,"/>
-    <hyperlink ref="J52" r:id="rId30" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/13.pdf&amp;embedded=true"/>
-    <hyperlink ref="J48" r:id="rId31"/>
-    <hyperlink ref="J58" r:id="rId32" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/14.pdf&amp;embedded=true"/>
-    <hyperlink ref="J59" r:id="rId33" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/15.pdf&amp;embedded=true"/>
-    <hyperlink ref="J65" r:id="rId34" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/standard.pdf&amp;embedded=true"/>
-    <hyperlink ref="J62" r:id="rId35" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/16.pdf&amp;embedded=true"/>
-    <hyperlink ref="J64" r:id="rId36" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/17.pdf&amp;embedded=true"/>
-    <hyperlink ref="J66" r:id="rId37" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/18.pdf&amp;embedded=true"/>
-    <hyperlink ref="J54" r:id="rId38"/>
-    <hyperlink ref="J56" r:id="rId39"/>
-    <hyperlink ref="J61" r:id="rId40"/>
+    <hyperlink ref="J52" r:id="rId29" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/13.pdf&amp;embedded=true"/>
+    <hyperlink ref="J48" r:id="rId30"/>
+    <hyperlink ref="J58" r:id="rId31" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/14.pdf&amp;embedded=true"/>
+    <hyperlink ref="J59" r:id="rId32" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/15.pdf&amp;embedded=true"/>
+    <hyperlink ref="J65" r:id="rId33" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/standard.pdf&amp;embedded=true"/>
+    <hyperlink ref="J62" r:id="rId34" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/16.pdf&amp;embedded=true"/>
+    <hyperlink ref="J64" r:id="rId35" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/17.pdf&amp;embedded=true"/>
+    <hyperlink ref="J66" r:id="rId36" display="https://docs.google.com/viewer?url=http://students.mathsnz.com/9.10/pdfs/18.pdf&amp;embedded=true"/>
+    <hyperlink ref="J54" r:id="rId37"/>
+    <hyperlink ref="J56" r:id="rId38"/>
+    <hyperlink ref="J61" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
--- a/9.10/left.xlsx
+++ b/9.10/left.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F39" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +925,7 @@
         <v>1.3</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G4:G6" si="5">SUBSTITUTE(F5,".","_")</f>
+        <f t="shared" ref="G5:G6" si="5">SUBSTITUTE(F5,".","_")</f>
         <v>1_3</v>
       </c>
       <c r="H5" t="str">
@@ -2796,9 +2796,9 @@
       <c r="I57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="5" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;","&amp;N57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","&amp;O57&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#ppdac9timprove,,,,,,,,,,</v>
+      <c r="J57" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F57,".","p")&amp;","&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;","&amp;N57&amp;","&amp;O57&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson10p4,ppdac9timprove,,,,,</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>125</v>
